--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Home\Uni\_CURRENT\Algoritmi\MINCUT_Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DF0A45-7A1F-4734-BB7E-50017829D652}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C04BF5-AD79-4D8B-9E54-7F982C0D6257}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-4170" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2389,7 +2389,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3232,19 +3232,19 @@
                   <c:v>9.3220600263425584E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255.66484390013801</c:v>
+                  <c:v>426.1080731668967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>974.98276852383685</c:v>
+                  <c:v>1624.9712808730615</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2503.5889211029548</c:v>
+                  <c:v>4172.6482018382576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5521.3032095413555</c:v>
+                  <c:v>9202.1720159022589</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11316.452091367546</c:v>
+                  <c:v>18860.753485612579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8203,13 +8203,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U106" sqref="U106"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8535,7 +8540,7 @@
         <v>0.16478961706161466</v>
       </c>
       <c r="Q7" s="1">
-        <v>255.66484390013801</v>
+        <v>426.1080731668967</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -8582,7 +8587,7 @@
         <v>0.40022623538970925</v>
       </c>
       <c r="Q8" s="1">
-        <v>974.98276852383685</v>
+        <v>1624.9712808730615</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -8629,7 +8634,7 @@
         <v>2.4199159741401628</v>
       </c>
       <c r="Q9" s="1">
-        <v>2503.5889211029548</v>
+        <v>4172.6482018382576</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -8676,7 +8681,7 @@
         <v>4.3934980034828071</v>
       </c>
       <c r="Q10" s="1">
-        <v>5521.3032095413555</v>
+        <v>9202.1720159022589</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -8723,7 +8728,7 @@
         <v>6.5258105397224178</v>
       </c>
       <c r="Q11" s="1">
-        <v>11316.452091367546</v>
+        <v>18860.753485612579</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -9230,8 +9235,8 @@
         <v>100</v>
       </c>
       <c r="O23">
-        <f>180*P15/Q15</f>
-        <v>255.66484390013801</v>
+        <f>300*P15/Q15</f>
+        <v>426.1080731668967</v>
       </c>
       <c r="R23" t="s">
         <v>1</v>
@@ -9284,8 +9289,8 @@
         <v>125</v>
       </c>
       <c r="O24">
-        <f t="shared" ref="O24:O27" si="10">180*P16/Q16</f>
-        <v>974.98276852383685</v>
+        <f t="shared" ref="O24:O27" si="10">300*P16/Q16</f>
+        <v>1624.9712808730615</v>
       </c>
       <c r="R24">
         <v>100</v>
@@ -9339,7 +9344,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="10"/>
-        <v>2503.5889211029548</v>
+        <v>4172.6482018382576</v>
       </c>
       <c r="R25">
         <v>125</v>
@@ -9393,7 +9398,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="10"/>
-        <v>5521.3032095413555</v>
+        <v>9202.1720159022589</v>
       </c>
       <c r="R26">
         <v>150</v>
@@ -9447,7 +9452,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="10"/>
-        <v>11316.452091367546</v>
+        <v>18860.753485612579</v>
       </c>
       <c r="R27">
         <v>175</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Home\Uni\_CURRENT\Algoritmi\MINCUT_Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C04BF5-AD79-4D8B-9E54-7F982C0D6257}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0361E0FA-C7F4-4B0F-B37E-5A1596AA3772}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-4170" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
                   <c:v>2.7168730030889098E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7168730030889098E-4</c:v>
+                  <c:v>5.9100000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.6054397791772301E-3</c:v>
@@ -1019,7 +1019,7 @@
                   <c:v>1.6978097998577576E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0299802316413528E-3</c:v>
+                  <c:v>1.1098084065641301E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6227530740765151E-3</c:v>
@@ -1527,7 +1527,7 @@
                   <c:v>1.9524812698364202E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9795812964439381</c:v>
+                  <c:v>1.1201722865600574</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17.731535255908923</c:v>
@@ -1654,7 +1654,7 @@
                   <c:v>1.9524812698364202E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9795812964439381</c:v>
+                  <c:v>1.1201722865600574</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17.731535255908923</c:v>
@@ -2245,7 +2245,7 @@
                   <c:v>3.1244039535522398E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1244039535522398E-2</c:v>
+                  <c:v>0.59360800000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.6134669780731199</c:v>
@@ -2598,7 +2598,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.5671000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.170557975769042</c:v>
@@ -7827,16 +7827,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>141047</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>122436</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>36271</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>36711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>126756</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8203,8 +8203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8388,15 +8388,15 @@
       </c>
       <c r="L4" s="1">
         <f>AVERAGE(E10:E13)</f>
-        <v>1.0299802316413528E-3</v>
+        <v>1.1098084065641301E-3</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:N4" si="2">AVERAGE(F10:F13)</f>
-        <v>0.9795812964439381</v>
+        <v>1.1201722865600574</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="2"/>
-        <v>4.3335258960723634E-2</v>
+        <v>4.7253008960723632E-2</v>
       </c>
       <c r="Q4" s="1">
         <v>1.0299802316413528E-3</v>
@@ -8648,16 +8648,16 @@
         <v>1005</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1">
-        <v>2.7168730030889098E-4</v>
+        <v>5.9100000000000005E-4</v>
       </c>
       <c r="F10" s="1">
-        <v>3.1244039535522398E-2</v>
+        <v>0.59360800000000002</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1.5671000000000001E-2</v>
       </c>
       <c r="H10">
         <v>0</v>
